--- a/doc/fase-1/SpaceX - Backlog.xlsx
+++ b/doc/fase-1/SpaceX - Backlog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25516"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="20" windowWidth="12080" windowHeight="12020"/>
+    <workbookView xWindow="120" yWindow="0" windowWidth="12540" windowHeight="12020"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="30">
   <si>
     <t>M</t>
   </si>
@@ -99,7 +99,22 @@
     <t>XL</t>
   </si>
   <si>
-    <t>TODO</t>
+    <t>DONE</t>
+  </si>
+  <si>
+    <t>PHP background</t>
+  </si>
+  <si>
+    <t>REMOVED</t>
+  </si>
+  <si>
+    <t>PHP tekst</t>
+  </si>
+  <si>
+    <t>PHP MVC system</t>
+  </si>
+  <si>
+    <t>PHP functions</t>
   </si>
 </sst>
 </file>
@@ -486,7 +501,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -497,7 +512,7 @@
   <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -593,7 +608,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -610,7 +625,7 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -644,7 +659,7 @@
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -661,7 +676,7 @@
         <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -678,7 +693,7 @@
         <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -716,32 +731,72 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+      <c r="A13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="3">
+        <v>2</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+      <c r="A14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="3">
+        <v>2</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
+      <c r="A15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="3">
+        <v>2</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
+      <c r="A16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="3">
+        <v>2</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3"/>
